--- a/static/matrices/Investor PI Matrix.xlsx
+++ b/static/matrices/Investor PI Matrix.xlsx
@@ -5,18 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwulbern\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Walker\Web Pricer\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Investor Solution DSCR-No Ratio" sheetId="1" r:id="rId1"/>
+    <sheet name="Investor Solution DSCR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>Investor Solutions</t>
   </si>
   <si>
-    <t>Debt Service Coverage or No Ratio</t>
+    <t>Debt Service Coverage</t>
   </si>
   <si>
     <t>Credit Event Seasoning</t>
@@ -68,78 +65,84 @@
 Short Sale / DIL : &gt;24mo                    </t>
   </si>
   <si>
+    <t>DSCR &gt;= 1.15</t>
+  </si>
+  <si>
+    <t>720+</t>
+  </si>
+  <si>
+    <t>&lt;=1,000,000</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1,000,001 - 1,500,000</t>
+  </si>
+  <si>
+    <t>1,500,001 - 2,000,000</t>
+  </si>
+  <si>
+    <t>700 - 719</t>
+  </si>
+  <si>
+    <t>640 - 699</t>
+  </si>
+  <si>
+    <t>620 - 639</t>
+  </si>
+  <si>
+    <t>&lt;=500,000</t>
+  </si>
+  <si>
+    <t>12 Months</t>
+  </si>
+  <si>
+    <t>DSCR &lt; 1.15</t>
+  </si>
+  <si>
+    <t>Prepayment Penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 6 months of interest on the amount of the prepayment that exceeds 20% of the original principal balance for a 3 year period; OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 3% of balance for a 3 year period (3%/3%/3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • See Rate Sheet for Buydown Options</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>LTV/CLTV Restrictions:</t>
+  </si>
+  <si>
+    <t>&lt;=$1mm</t>
+  </si>
+  <si>
+    <t>&gt;$1mm</t>
+  </si>
+  <si>
+    <t>Cashout Limit (% of Prop Value)</t>
+  </si>
+  <si>
+    <t>Additional Restrictions</t>
+  </si>
+  <si>
+    <t>Condo / 2-4 Unit:</t>
+  </si>
+  <si>
     <t>DSCR</t>
   </si>
   <si>
-    <t>720+</t>
-  </si>
-  <si>
-    <t>&lt;=1,000,000</t>
-  </si>
-  <si>
-    <t>6 Months</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>1,000,001 - 1,500,000</t>
-  </si>
-  <si>
-    <t>1,500,001 - 2,000,000</t>
-  </si>
-  <si>
-    <t>700 - 719</t>
-  </si>
-  <si>
-    <t>640 - 699</t>
-  </si>
-  <si>
-    <t>620 - 639</t>
-  </si>
-  <si>
-    <t>&lt;=500,000</t>
-  </si>
-  <si>
-    <t>12 Months</t>
-  </si>
-  <si>
     <t>No Ratio</t>
   </si>
   <si>
-    <t>Prepayment Penalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • 6 months of interest on the amount of the prepayment that exceeds 20% of the original principal balance for a 3 year period; OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • 3% of balance for a 3 year period (3%/3%/3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • See Rate Sheet for Buydown Options</t>
-  </si>
-  <si>
-    <t>Restrictions</t>
-  </si>
-  <si>
-    <t>LTV/CLTV Restrictions:</t>
-  </si>
-  <si>
-    <t>&lt;=$1mm</t>
-  </si>
-  <si>
-    <t>&gt;$1mm</t>
-  </si>
-  <si>
-    <t>Cashout Limit (% of Prop Value)</t>
-  </si>
-  <si>
-    <t>Additional Restrictions</t>
-  </si>
-  <si>
-    <t>Condo / 2-4 Unit:</t>
-  </si>
-  <si>
     <t>•  Minimum Loan Bal: $75,000</t>
   </si>
   <si>
@@ -164,7 +167,7 @@
     <t>Unleased Prop (Refi):</t>
   </si>
   <si>
-    <t>•  First Time Invester: Purchase Money Only</t>
+    <t>•  First Time Investor: Purchase Money Only</t>
   </si>
   <si>
     <t>Loan Eligibility</t>
@@ -421,7 +424,7 @@
     <t xml:space="preserve">                                  or Note Rate</t>
   </si>
   <si>
-    <t>Eligibile States</t>
+    <t>Eligible States</t>
   </si>
   <si>
     <t>Nationwide excluding Puerto Rico, Guam and the US Virgin Islands; DC, MD, NJ and NY restricted to a 680 minimum FICO</t>
@@ -511,13 +514,7 @@
     <t>Debt Service Coverage Ratio (DSCR):</t>
   </si>
   <si>
-    <t>No Ratio - No debt-to-Income calculation</t>
-  </si>
-  <si>
     <t>• Gross Income/PITIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Employment/Income - No employment or income verification required         </t>
   </si>
   <si>
     <t xml:space="preserve">• Transaction qualified on cash flow of the subject property </t>
@@ -548,36 +545,9 @@
     </r>
   </si>
   <si>
-    <t>Lease Agreements</t>
-  </si>
-  <si>
     <t>Lower of Estimated Market Rent from Form 1007 and monthly rent from an existing lease</t>
   </si>
   <si>
-    <t>See Investor Solutions Guide for lease requiremnts for subject property</t>
-  </si>
-  <si>
-    <t>Minimum DSCR Requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Loan Amount &lt;=$115k:         </t>
-  </si>
-  <si>
-    <t>1.30 DSCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Loan Amount $115k-$400k:    </t>
-  </si>
-  <si>
-    <t>1.25 DSCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Loan Amount &gt;$400k:            </t>
-  </si>
-  <si>
-    <t>1.15 DSCR</t>
-  </si>
-  <si>
     <t>Residency</t>
   </si>
   <si>
@@ -594,6 +564,9 @@
   </si>
   <si>
     <t xml:space="preserve">   Total reserve requirement is not to exceed 24 mo. Requirement is not applicable when there is no reserve requirement.</t>
+  </si>
+  <si>
+    <t>Effective Date:</t>
   </si>
 </sst>
 </file>
@@ -603,7 +576,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,8 +739,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,6 +783,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,7 +1266,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1288,12 +1294,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1309,24 +1309,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1334,81 +1316,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,15 +1339,6 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1570,12 +1483,6 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1594,12 +1501,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1615,13 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1635,9 +1530,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1654,9 +1546,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1669,9 +1558,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1747,104 +1633,223 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1862,36 +1867,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Credit Ascent-Primary"/>
-      <sheetName val="Credit Ascent-2nd Home"/>
-      <sheetName val="Investor Solutions"/>
-      <sheetName val="Investor Solution DSCR-No Ratio"/>
-      <sheetName val="Foreign National"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="H1" t="str">
-            <v>Effective Date:</v>
-          </cell>
-          <cell r="I1">
-            <v>42681</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2194,10 +2169,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,13 +2192,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="I1" s="3" t="str">
-        <f>'[1]Credit Ascent-Primary'!$H$1</f>
-        <v>Effective Date:</v>
+      <c r="I1" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J1" s="4">
-        <f>'[1]Credit Ascent-Primary'!$I$1</f>
-        <v>42681</v>
+        <v>42856</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2239,646 +2212,646 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:13" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="220"/>
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="220"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="222"/>
+      <c r="C4" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="216"/>
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="16">
         <v>80</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="16">
         <v>75</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="16">
         <v>70</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="223"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="19">
         <v>75</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="19">
         <v>75</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="19">
         <v>70</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="34" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="223"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="211"/>
+      <c r="G6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="19">
         <v>75</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="19">
         <v>75</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="19">
         <v>70</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="19">
         <v>70</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="19">
         <v>70</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="19">
         <v>65</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37" t="s">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="223"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="195"/>
+      <c r="G8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="20">
         <v>70</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="20">
         <v>70</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="20">
         <v>65</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="40" t="s">
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="223"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
+      <c r="F9" s="216"/>
+      <c r="G9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="16">
         <v>75</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="16">
         <v>75</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="16">
         <v>70</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33" t="s">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="223"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="19">
         <v>75</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="19">
         <v>75</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="19">
         <v>70</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="34" t="s">
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="223"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="33" t="s">
+      <c r="F11" s="211"/>
+      <c r="G11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="19">
         <v>75</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="19">
         <v>70</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="19">
         <v>65</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="223"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="19">
         <v>70</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="19">
         <v>70</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="19">
         <v>65</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="34" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="223"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="39" t="s">
+      <c r="F13" s="211"/>
+      <c r="G13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="20">
         <v>70</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="20">
         <v>70</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="20">
         <v>65</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="21" t="s">
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="223"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="216"/>
+      <c r="G14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="16">
         <v>70</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="16">
         <v>70</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="16">
         <v>65</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="223"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="19">
         <v>70</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="19">
         <v>70</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="19">
         <v>65</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="34" t="s">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="223"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="33" t="s">
+      <c r="F16" s="211"/>
+      <c r="G16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="19">
         <v>65</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="19">
         <v>65</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="19">
         <v>65</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="43" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="223"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="21">
         <v>65</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="21">
         <v>65</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="21">
         <v>60</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="44" t="s">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="223"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="24" t="s">
+      <c r="F18" s="218"/>
+      <c r="G18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="16">
         <v>65</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="16">
         <v>65</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="16">
         <v>60</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="20" t="s">
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="223"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="191"/>
+      <c r="G19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="23">
         <v>75</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="23">
         <v>75</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="23">
         <v>70</v>
       </c>
       <c r="K19" s="10"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="50" t="s">
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="223"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52" t="s">
+      <c r="F20" s="193"/>
+      <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="24">
         <v>70</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="24">
         <v>70</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="24">
         <v>65</v>
       </c>
       <c r="K20" s="10"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="37" t="s">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="223"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="53" t="s">
+      <c r="F21" s="195"/>
+      <c r="G21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="25">
         <v>70</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="25">
         <v>70</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="25">
         <v>65</v>
       </c>
       <c r="K21" s="10"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-    </row>
-    <row r="22" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="21" t="s">
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="223"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49" t="s">
+      <c r="F22" s="191"/>
+      <c r="G22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="23">
         <v>75</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="23">
         <v>75</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="23">
         <v>70</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="50" t="s">
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="223"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52" t="s">
+      <c r="F23" s="193"/>
+      <c r="G23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="24">
         <v>70</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="24">
         <v>70</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="24">
         <v>65</v>
       </c>
       <c r="K23" s="10"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="37" t="s">
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="223"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="54" t="s">
+      <c r="F24" s="195"/>
+      <c r="G24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="26">
         <v>70</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="26">
         <v>70</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="26">
         <v>65</v>
       </c>
       <c r="K24" s="10"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-    </row>
-    <row r="25" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="40" t="s">
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="223"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49" t="s">
+      <c r="F25" s="191"/>
+      <c r="G25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="23">
         <v>70</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="23">
         <v>70</v>
       </c>
-      <c r="J25" s="49">
+      <c r="J25" s="23">
         <v>65</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="50" t="s">
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="223"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="208"/>
+      <c r="E26" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52" t="s">
+      <c r="F26" s="193"/>
+      <c r="G26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="24">
         <v>65</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="24">
         <v>65</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="24">
         <v>60</v>
       </c>
       <c r="K26" s="10"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="1:13" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="37" t="s">
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="225"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="195"/>
+      <c r="G27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="26">
         <v>65</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="26">
         <v>65</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="26">
         <v>60</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="1:13" s="26" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2886,880 +2859,822 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="67"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="70"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="60"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="75" t="s">
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="76"/>
-      <c r="J34" s="78"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="80">
+      <c r="B35" s="49">
         <v>70</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="50">
         <v>70</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="79" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="86"/>
-      <c r="J35" s="87"/>
+      <c r="G35" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="89">
+      <c r="A36" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="58">
         <v>70</v>
       </c>
-      <c r="C36" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61">
+        <v>0.65</v>
+      </c>
+      <c r="G36" s="62">
+        <v>0.65</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="63"/>
+      <c r="J36" s="64"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="66">
+        <v>65</v>
+      </c>
+      <c r="C37" s="67">
+        <v>65</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="68"/>
+      <c r="F37" s="69">
+        <v>0.6</v>
+      </c>
+      <c r="G37" s="70">
+        <v>0.6</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="63"/>
+      <c r="J37" s="64"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="72">
+        <v>65</v>
+      </c>
+      <c r="C38" s="73">
+        <v>60</v>
+      </c>
+      <c r="D38" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="92">
-        <v>0.65</v>
-      </c>
-      <c r="G36" s="93">
-        <v>0.65</v>
-      </c>
-      <c r="H36" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="97">
+      <c r="E38" s="75"/>
+      <c r="F38" s="76">
+        <v>0.6</v>
+      </c>
+      <c r="G38" s="77">
+        <v>0.6</v>
+      </c>
+      <c r="H38" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="63"/>
+      <c r="J38" s="64"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="196" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="199" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="197"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="197"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="197"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="197"/>
+      <c r="B44" s="201"/>
+      <c r="C44" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="198"/>
+      <c r="B45" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="91"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="171" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="173"/>
+      <c r="B47" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="102"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="173"/>
+      <c r="B48" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="102"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="175"/>
+      <c r="B49" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="108"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="98">
-        <v>65</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="99"/>
-      <c r="F37" s="100">
-        <v>0.6</v>
-      </c>
-      <c r="G37" s="101">
-        <v>0.6</v>
-      </c>
-      <c r="H37" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95"/>
-    </row>
-    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="103">
-        <v>65</v>
-      </c>
-      <c r="C38" s="104">
-        <v>60</v>
-      </c>
-      <c r="D38" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="107">
-        <v>0.6</v>
-      </c>
-      <c r="G38" s="108">
-        <v>0.6</v>
-      </c>
-      <c r="H38" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="94"/>
-      <c r="J38" s="95"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="60"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="110" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="111" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="117"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="117"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="117"/>
-      <c r="B44" s="124"/>
-      <c r="C44" s="122" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="125"/>
-      <c r="B45" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="128"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="132" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="133"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="136" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="139"/>
-      <c r="B47" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="141"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="143"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="139"/>
-      <c r="B48" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="141"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="116"/>
-      <c r="L48" s="116"/>
-      <c r="M48" s="116"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="146"/>
-      <c r="B49" s="147" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="148"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="116"/>
-      <c r="L49" s="116"/>
-      <c r="M49" s="116"/>
-    </row>
-    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="153" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="154"/>
-      <c r="C50" s="155" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="158"/>
-      <c r="M50" s="159"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="118"/>
+      <c r="M50" s="119"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="153" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="160"/>
-      <c r="C51" s="161" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="162"/>
-      <c r="E51" s="163"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="164"/>
-      <c r="I51" s="164"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="158"/>
-      <c r="M51" s="159"/>
+      <c r="A51" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="120"/>
+      <c r="C51" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="122"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="118"/>
+      <c r="M51" s="119"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="153" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="165"/>
-      <c r="C52" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="167"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="169"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="158"/>
-      <c r="M52" s="159"/>
+      <c r="A52" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="125"/>
+      <c r="C52" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="127"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="118"/>
+      <c r="M52" s="119"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="171" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="172"/>
-      <c r="C53" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="173"/>
-      <c r="E53" s="174"/>
-      <c r="F53" s="174"/>
-      <c r="G53" s="174"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="158"/>
-      <c r="M53" s="159"/>
+      <c r="A53" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="132"/>
+      <c r="C53" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="133"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="118"/>
+      <c r="M53" s="119"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="175"/>
-      <c r="K54" s="158"/>
-      <c r="M54" s="159"/>
+      <c r="A54" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="118"/>
+      <c r="M54" s="119"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="176"/>
-      <c r="C55" s="177" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="179"/>
-      <c r="K55" s="158"/>
-      <c r="M55" s="159"/>
+      <c r="A55" s="171" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="172"/>
+      <c r="C55" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="118"/>
+      <c r="M55" s="119"/>
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="139"/>
-      <c r="B56" s="180"/>
-      <c r="C56" s="181" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="182"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="182"/>
-      <c r="J56" s="183"/>
-      <c r="K56" s="158"/>
-      <c r="M56" s="159"/>
+      <c r="A56" s="173"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="141"/>
+      <c r="K56" s="118"/>
+      <c r="M56" s="119"/>
     </row>
     <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="139"/>
-      <c r="B57" s="180"/>
-      <c r="C57" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="184"/>
-      <c r="E57" s="184"/>
-      <c r="F57" s="184"/>
-      <c r="G57" s="184"/>
-      <c r="H57" s="184"/>
-      <c r="I57" s="184"/>
-      <c r="J57" s="183"/>
-      <c r="K57" s="158"/>
-      <c r="M57" s="159"/>
+      <c r="A57" s="173"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="118"/>
+      <c r="M57" s="119"/>
     </row>
     <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="146"/>
-      <c r="B58" s="185"/>
-      <c r="C58" s="143" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="184"/>
-      <c r="E58" s="184"/>
-      <c r="F58" s="184"/>
-      <c r="G58" s="184"/>
-      <c r="H58" s="184"/>
-      <c r="I58" s="184"/>
-      <c r="J58" s="183"/>
-      <c r="M58" s="159"/>
+      <c r="A58" s="175"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="142"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="142"/>
+      <c r="I58" s="142"/>
+      <c r="J58" s="141"/>
+      <c r="M58" s="119"/>
     </row>
     <row r="59" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="176"/>
-      <c r="C59" s="186"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="179"/>
-      <c r="G59" s="187"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="178"/>
-      <c r="J59" s="179"/>
-      <c r="M59" s="159"/>
+      <c r="A59" s="171" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="172"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="138"/>
+      <c r="M59" s="119"/>
     </row>
     <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="139"/>
-      <c r="B60" s="180"/>
-      <c r="C60" s="188" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="182"/>
-      <c r="E60" s="182"/>
-      <c r="F60" s="183"/>
-      <c r="G60" s="189" t="s">
-        <v>79</v>
-      </c>
-      <c r="H60" s="182"/>
-      <c r="I60" s="182"/>
-      <c r="J60" s="183"/>
-      <c r="M60" s="159"/>
+      <c r="A60" s="173"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
+      <c r="J60" s="148"/>
+      <c r="M60" s="119"/>
     </row>
     <row r="61" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="139"/>
-      <c r="B61" s="180"/>
-      <c r="C61" s="190"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="182"/>
-      <c r="F61" s="183"/>
-      <c r="G61" s="190"/>
-      <c r="H61" s="182"/>
-      <c r="I61" s="182"/>
-      <c r="J61" s="183"/>
-      <c r="M61" s="159"/>
+      <c r="A61" s="173"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="150"/>
+      <c r="I61" s="150"/>
+      <c r="J61" s="151"/>
+      <c r="M61" s="119"/>
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="139"/>
-      <c r="B62" s="180"/>
-      <c r="C62" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="182"/>
-      <c r="E62" s="182"/>
-      <c r="F62" s="183"/>
-      <c r="G62" s="191" t="s">
+      <c r="A62" s="173"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="H62" s="192"/>
-      <c r="I62" s="192"/>
-      <c r="J62" s="193"/>
-      <c r="M62" s="159"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="178"/>
+      <c r="H62" s="178"/>
+      <c r="I62" s="178"/>
+      <c r="J62" s="179"/>
+      <c r="M62" s="119"/>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="139"/>
-      <c r="B63" s="180"/>
-      <c r="C63" s="190" t="s">
+      <c r="A63" s="173"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="182"/>
-      <c r="E63" s="182"/>
-      <c r="F63" s="183"/>
-      <c r="G63" s="191"/>
-      <c r="H63" s="192"/>
-      <c r="I63" s="192"/>
-      <c r="J63" s="193"/>
-      <c r="K63" s="158"/>
-      <c r="M63" s="159"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="178"/>
+      <c r="H63" s="178"/>
+      <c r="I63" s="178"/>
+      <c r="J63" s="179"/>
+      <c r="K63" s="118"/>
+      <c r="M63" s="119"/>
     </row>
     <row r="64" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="139"/>
-      <c r="B64" s="180"/>
-      <c r="C64" s="190"/>
-      <c r="D64" s="194"/>
-      <c r="E64" s="194"/>
-      <c r="F64" s="195"/>
-      <c r="G64" s="196"/>
-      <c r="H64" s="182"/>
-      <c r="I64" s="182"/>
-      <c r="J64" s="183"/>
-      <c r="K64" s="158"/>
-      <c r="M64" s="159"/>
+      <c r="A64" s="173"/>
+      <c r="B64" s="177"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="152"/>
+      <c r="E64" s="152"/>
+      <c r="F64" s="152"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="150"/>
+      <c r="I64" s="150"/>
+      <c r="J64" s="151"/>
+      <c r="K64" s="118"/>
+      <c r="M64" s="119"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="139"/>
-      <c r="B65" s="180"/>
-      <c r="C65" s="196" t="s">
+      <c r="A65" s="173"/>
+      <c r="B65" s="177"/>
+      <c r="C65" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="197"/>
-      <c r="E65" s="197"/>
-      <c r="F65" s="198"/>
-      <c r="G65" s="196" t="s">
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="150"/>
+      <c r="I65" s="150"/>
+      <c r="J65" s="151"/>
+      <c r="K65" s="118"/>
+      <c r="M65" s="119"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="173"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="182"/>
-      <c r="I65" s="182"/>
-      <c r="J65" s="183"/>
-      <c r="K65" s="158"/>
-      <c r="M65" s="159"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="139"/>
-      <c r="B66" s="180"/>
-      <c r="C66" s="191" t="s">
+      <c r="D66" s="181"/>
+      <c r="E66" s="181"/>
+      <c r="F66" s="181"/>
+      <c r="G66" s="182"/>
+      <c r="H66" s="182"/>
+      <c r="I66" s="182"/>
+      <c r="J66" s="183"/>
+      <c r="K66" s="156"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="173"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="180"/>
+      <c r="D67" s="181"/>
+      <c r="E67" s="181"/>
+      <c r="F67" s="181"/>
+      <c r="G67" s="182"/>
+      <c r="H67" s="182"/>
+      <c r="I67" s="182"/>
+      <c r="J67" s="183"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="173"/>
+      <c r="B68" s="177"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="127"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="159"/>
+      <c r="K68" s="118"/>
+      <c r="M68" s="119"/>
+    </row>
+    <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="192"/>
-      <c r="E66" s="192"/>
-      <c r="F66" s="193"/>
-      <c r="G66" s="199" t="s">
+      <c r="B69" s="47"/>
+      <c r="C69" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="H66" s="200"/>
-      <c r="I66" s="200"/>
-      <c r="J66" s="201"/>
-      <c r="K66" s="202"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="139"/>
-      <c r="B67" s="180"/>
-      <c r="C67" s="191"/>
-      <c r="D67" s="192"/>
-      <c r="E67" s="192"/>
-      <c r="F67" s="193"/>
-      <c r="G67" s="199"/>
-      <c r="H67" s="200"/>
-      <c r="I67" s="200"/>
-      <c r="J67" s="201"/>
-      <c r="K67"/>
-    </row>
-    <row r="68" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="139"/>
-      <c r="B68" s="180"/>
-      <c r="C68" s="190"/>
-      <c r="D68" s="194"/>
-      <c r="E68" s="194"/>
-      <c r="F68" s="195"/>
-      <c r="G68" s="196"/>
-      <c r="H68" s="182"/>
-      <c r="I68" s="182"/>
-      <c r="J68" s="183"/>
-      <c r="K68" s="158"/>
-      <c r="M68" s="159"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="139"/>
-      <c r="B69" s="180"/>
-      <c r="C69" s="189" t="s">
+      <c r="D69" s="161"/>
+      <c r="E69" s="161"/>
+      <c r="F69" s="161"/>
+      <c r="G69" s="161"/>
+      <c r="H69" s="161"/>
+      <c r="I69" s="161"/>
+      <c r="J69" s="162"/>
+    </row>
+    <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="202"/>
-      <c r="E69" s="202"/>
-      <c r="F69" s="203"/>
-      <c r="G69" s="190"/>
-      <c r="H69" s="182"/>
-      <c r="I69" s="182"/>
-      <c r="J69" s="183"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="139"/>
-      <c r="B70" s="180"/>
-      <c r="C70" s="140" t="s">
+      <c r="B70" s="185"/>
+      <c r="C70" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="204"/>
-      <c r="E70" s="184" t="s">
+      <c r="D70" s="163"/>
+      <c r="E70" s="163"/>
+      <c r="F70" s="163"/>
+      <c r="G70" s="163"/>
+      <c r="H70" s="163"/>
+      <c r="I70" s="163"/>
+      <c r="J70" s="164"/>
+      <c r="K70" s="165"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="186"/>
+      <c r="B71" s="187"/>
+      <c r="C71" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="F70" s="205"/>
-      <c r="G70" s="190"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="182"/>
-      <c r="J70" s="183"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="139"/>
-      <c r="B71" s="180"/>
-      <c r="C71" s="140" t="s">
+      <c r="D71" s="166"/>
+      <c r="E71" s="166"/>
+      <c r="F71" s="166"/>
+      <c r="G71" s="166"/>
+      <c r="H71" s="166"/>
+      <c r="I71" s="166"/>
+      <c r="J71" s="167"/>
+      <c r="K71" s="165"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="188"/>
+      <c r="B72" s="189"/>
+      <c r="C72" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="D71" s="204"/>
-      <c r="E71" s="184" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="205"/>
-      <c r="G71" s="206"/>
-      <c r="H71" s="182"/>
-      <c r="I71" s="182"/>
-      <c r="J71" s="183"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="139"/>
-      <c r="B72" s="180"/>
-      <c r="C72" s="207" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="208"/>
-      <c r="E72" s="209" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" s="210"/>
-      <c r="G72" s="211"/>
-      <c r="H72" s="167"/>
-      <c r="I72" s="167"/>
-      <c r="J72" s="212"/>
-    </row>
-    <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="78"/>
-      <c r="C73" s="213" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="214"/>
-      <c r="E73" s="214"/>
-      <c r="F73" s="214"/>
-      <c r="G73" s="214"/>
-      <c r="H73" s="214"/>
-      <c r="I73" s="214"/>
-      <c r="J73" s="215"/>
-    </row>
-    <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="216" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="217"/>
-      <c r="C74" s="177" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="218"/>
-      <c r="E74" s="218"/>
-      <c r="F74" s="218"/>
-      <c r="G74" s="218"/>
-      <c r="H74" s="218"/>
-      <c r="I74" s="218"/>
-      <c r="J74" s="219"/>
-      <c r="K74" s="220"/>
+      <c r="D72" s="168"/>
+      <c r="E72" s="168"/>
+      <c r="F72" s="169"/>
+      <c r="G72" s="169"/>
+      <c r="H72" s="169"/>
+      <c r="I72" s="169"/>
+      <c r="J72" s="170"/>
+      <c r="K72" s="165"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J73" s="87"/>
+      <c r="K73" s="165"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J74" s="87"/>
+      <c r="K74" s="165"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="221"/>
-      <c r="B75" s="222"/>
-      <c r="C75" s="223" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="223"/>
-      <c r="E75" s="223"/>
-      <c r="F75" s="223"/>
-      <c r="G75" s="223"/>
-      <c r="H75" s="223"/>
-      <c r="I75" s="223"/>
-      <c r="J75" s="224"/>
-      <c r="K75" s="220"/>
+      <c r="J75" s="87"/>
+      <c r="K75" s="165"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="225"/>
-      <c r="B76" s="226"/>
-      <c r="C76" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="227"/>
-      <c r="E76" s="227"/>
-      <c r="F76" s="209"/>
-      <c r="G76" s="209"/>
-      <c r="H76" s="209"/>
-      <c r="I76" s="209"/>
-      <c r="J76" s="210"/>
-      <c r="K76" s="220"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="165"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J77" s="122"/>
-      <c r="K77" s="220"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J78" s="122"/>
-      <c r="K78" s="220"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="165"/>
+    </row>
+    <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="87"/>
+      <c r="K78" s="165"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J79" s="122"/>
-      <c r="K79" s="220"/>
+      <c r="J79" s="87"/>
+      <c r="K79" s="165"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J80" s="122"/>
-      <c r="K80" s="220"/>
+      <c r="J80" s="87"/>
+      <c r="K80" s="165"/>
     </row>
     <row r="81" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J81" s="122"/>
-      <c r="K81" s="220"/>
-    </row>
-    <row r="82" spans="10:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="122"/>
-      <c r="K82" s="220"/>
-    </row>
-    <row r="83" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J83" s="122"/>
-      <c r="K83" s="220"/>
-    </row>
-    <row r="84" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J84" s="122"/>
-      <c r="K84" s="220"/>
-    </row>
-    <row r="85" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J85" s="122"/>
-      <c r="K85" s="220"/>
+      <c r="J81" s="87"/>
+      <c r="K81" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A55:B58"/>
-    <mergeCell ref="A59:B72"/>
-    <mergeCell ref="G62:J63"/>
-    <mergeCell ref="C66:F67"/>
-    <mergeCell ref="G66:J67"/>
-    <mergeCell ref="A74:B76"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A4:B27"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A70:B72"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
@@ -3775,26 +3690,14 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A4:B27"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="A55:B58"/>
+    <mergeCell ref="A59:B68"/>
+    <mergeCell ref="G62:J63"/>
+    <mergeCell ref="C66:F67"/>
+    <mergeCell ref="G66:J67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="67" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>